--- a/src/docs/Sample.xlsx
+++ b/src/docs/Sample.xlsx
@@ -46,9 +46,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00\ _€_-;\-* #,##0.00\ _€_-;_-* &quot;-&quot;??\ _€_-;_-@_-"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -120,7 +119,7 @@
     <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -138,15 +137,15 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Komma" xfId="6" builtinId="3"/>
     <cellStyle name="Prozent" xfId="5" builtinId="5"/>
     <cellStyle name="Prozent 2" xfId="4"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1"/>
     <cellStyle name="Standard 3" xfId="2"/>
+    <cellStyle name="Währung" xfId="6" builtinId="4"/>
     <cellStyle name="Währung 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -729,7 +728,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/src/docs/Sample.xlsx
+++ b/src/docs/Sample.xlsx
@@ -1,21 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
   <workbookPr hidePivotFieldList="1"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ralfd\projects\github\rdmueller\docToolchain\src\docs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="19320" windowHeight="10110" tabRatio="681" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="19320" windowHeight="10110" tabRatio="681"/>
   </bookViews>
   <sheets>
     <sheet name="Werte" sheetId="1" r:id="rId1"/>
     <sheet name="Numerisch" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t>A</t>
   </si>
@@ -40,12 +45,59 @@
   </si>
   <si>
     <t>=B</t>
+  </si>
+  <si>
+    <t>Test "test"</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>a wide cell</t>
+  </si>
+  <si>
+    <t>narrow</t>
+  </si>
+  <si>
+    <t>default</t>
+  </si>
+  <si>
+    <t>left</t>
+  </si>
+  <si>
+    <t>right</t>
+  </si>
+  <si>
+    <t>center</t>
+  </si>
+  <si>
+    <t>1
+2
+3</t>
+  </si>
+  <si>
+    <t>top</t>
+  </si>
+  <si>
+    <t>middle</t>
+  </si>
+  <si>
+    <t>bottom</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>test | test</t>
+  </si>
+  <si>
+    <t>test *bold*</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_-* #,##0.00\ &quot;€&quot;_-;\-* #,##0.00\ &quot;€&quot;_-;_-* &quot;-&quot;??\ &quot;€&quot;_-;_-@_-"/>
   </numFmts>
@@ -95,12 +147,36 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4DBEBB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -121,7 +197,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -138,26 +214,58 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="5" applyFont="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="7">
-    <cellStyle name="Prozent" xfId="5" builtinId="5"/>
+    <cellStyle name="Currency" xfId="6" builtinId="4"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
     <cellStyle name="Prozent 2" xfId="4"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="1"/>
     <cellStyle name="Standard 3" xfId="2"/>
-    <cellStyle name="Währung" xfId="6" builtinId="4"/>
     <cellStyle name="Währung 2" xfId="3"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FF4DBEBB"/>
       <color rgb="FFCCCCCC"/>
     </mruColors>
   </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -671,18 +779,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.3984375" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="22.86328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="5.86328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="11.3984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -695,8 +805,11 @@
       <c r="D1" s="4" t="s">
         <v>7</v>
       </c>
+      <c r="E1" s="8" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:4" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -709,6 +822,95 @@
       <c r="D2" s="1" t="str">
         <f>B2</f>
         <v>WertV</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A3" s="14" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="E3" s="17">
+        <v>42887</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="E4" s="17">
+        <v>42888</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A5" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5" s="17">
+        <v>42889</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="A6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="E6" s="17">
+        <f>E5+10</f>
+        <v>42899</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="38.25" x14ac:dyDescent="0.35">
+      <c r="A7" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -727,13 +929,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1">
         <v>1</v>
       </c>
@@ -747,7 +949,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" s="5">
         <v>1</v>
       </c>

--- a/src/docs/Sample.xlsx
+++ b/src/docs/Sample.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18201"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18326"/>
   <workbookPr hidePivotFieldList="1"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -9,18 +9,19 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="19320" windowHeight="10110" tabRatio="681"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="19320" windowHeight="10110" tabRatio="681" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Werte" sheetId="1" r:id="rId1"/>
     <sheet name="Numerisch" sheetId="2" r:id="rId2"/>
+    <sheet name="ColAndRowSpan" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
   <si>
     <t>A</t>
   </si>
@@ -92,6 +93,36 @@
   </si>
   <si>
     <t>test *bold*</t>
+  </si>
+  <si>
+    <t>ColSpan</t>
+  </si>
+  <si>
+    <t>j</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>g</t>
+  </si>
+  <si>
+    <t>i</t>
   </si>
 </sst>
 </file>
@@ -197,7 +228,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -241,6 +272,10 @@
     </xf>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -781,7 +816,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
@@ -967,4 +1002,109 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:B6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="18" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="18"/>
+      <c r="C1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="18">
+        <v>2</v>
+      </c>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>4</v>
+      </c>
+      <c r="C3" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" s="18">
+        <v>6</v>
+      </c>
+      <c r="C4" s="18"/>
+      <c r="D4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="19"/>
+      <c r="C6" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="D6" s="19"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" s="19"/>
+      <c r="D7" s="19"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="B2:D2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="C6:D7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>
--- a/src/docs/Sample.xlsx
+++ b/src/docs/Sample.xlsx
@@ -9,19 +9,20 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="90" windowWidth="19320" windowHeight="10110" tabRatio="681" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="90" windowWidth="19320" windowHeight="10110" tabRatio="681" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Werte" sheetId="1" r:id="rId1"/>
     <sheet name="Numerisch" sheetId="2" r:id="rId2"/>
     <sheet name="ColAndRowSpan" sheetId="3" r:id="rId3"/>
+    <sheet name="Issue43" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="37">
   <si>
     <t>A</t>
   </si>
@@ -123,6 +124,18 @@
   </si>
   <si>
     <t>i</t>
+  </si>
+  <si>
+    <t>test</t>
+  </si>
+  <si>
+    <t>test2</t>
+  </si>
+  <si>
+    <t>test3</t>
+  </si>
+  <si>
+    <t>test4</t>
   </si>
 </sst>
 </file>
@@ -178,7 +191,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -209,6 +222,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.89999084444715716"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -228,7 +253,7 @@
     <xf numFmtId="9" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -273,10 +298,15 @@
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Currency" xfId="6" builtinId="4"/>
@@ -1008,17 +1038,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="B1" s="18"/>
+      <c r="B1" s="20"/>
       <c r="C1" t="s">
         <v>25</v>
       </c>
@@ -1030,11 +1060,11 @@
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="22">
         <v>2</v>
       </c>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="C2" s="22"/>
+      <c r="D2" s="22"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3">
@@ -1054,10 +1084,10 @@
       <c r="A4">
         <v>5</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="21">
         <v>6</v>
       </c>
-      <c r="C4" s="18"/>
+      <c r="C4" s="21"/>
       <c r="D4">
         <v>8</v>
       </c>
@@ -1066,7 +1096,7 @@
       <c r="A5" t="s">
         <v>25</v>
       </c>
-      <c r="B5" s="19" t="s">
+      <c r="B5" s="18" t="s">
         <v>27</v>
       </c>
       <c r="C5" t="s">
@@ -1080,7 +1110,7 @@
       <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="19"/>
+      <c r="B6" s="18"/>
       <c r="C6" s="19" t="s">
         <v>31</v>
       </c>
@@ -1107,4 +1137,37 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C6" sqref="C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="C5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>